--- a/sample-data/salesReports.xlsx
+++ b/sample-data/salesReports.xlsx
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,18 +5474,20 @@
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5499,34 +5501,34 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5540,34 +5542,34 @@
         <v>30653312</v>
       </c>
       <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>8532</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>157</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>156</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>83</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>130</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>254</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2">
-        <v>2018</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5581,34 +5583,34 @@
         <v>7048534</v>
       </c>
       <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>4738</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>184</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>74</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>142</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>85</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>259</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3">
-        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -5622,34 +5624,34 @@
         <v>8860898</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>2018</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>8543</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>106</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>83</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>101</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>86</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>307</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>3</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5663,34 +5665,34 @@
         <v>30653312</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>2348</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>71</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>164</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>171</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>55</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>359</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5">
-        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -5704,34 +5706,34 @@
         <v>7048534</v>
       </c>
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>7375</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>143</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>177</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>147</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>188</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>429</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6">
-        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5745,34 +5747,34 @@
         <v>8860898</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>2018</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>5309</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>76</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>127</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>129</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>104</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>463</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7">
-        <v>2018</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -5786,34 +5788,34 @@
         <v>30653312</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>2018</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>5083</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>72</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>87</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>51</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>167</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>334</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5827,34 +5829,34 @@
         <v>7048534</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>6738</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>103</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>139</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>84</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>79</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>409</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9">
-        <v>2018</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5868,34 +5870,34 @@
         <v>27164138</v>
       </c>
       <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>9468</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>174</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>168</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>118</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>133</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>449</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10">
-        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5909,34 +5911,34 @@
         <v>24007048</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>7507</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <v>143</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>146</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>170</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>95</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>460</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>4</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11">
-        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -5950,34 +5952,34 @@
         <v>30653312</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>1752</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <v>57</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>127</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>164</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>151</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>417</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12">
-        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5991,34 +5993,34 @@
         <v>7048534</v>
       </c>
       <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>8714</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <v>179</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>112</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>155</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>61</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>484</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13">
-        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6032,34 +6034,34 @@
         <v>8860898</v>
       </c>
       <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>8332</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <v>154</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>198</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>88</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>93</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>432</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6073,34 +6075,34 @@
         <v>27164138</v>
       </c>
       <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>5558</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <v>134</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>88</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>152</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>195</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>238</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>8</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15">
-        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6114,34 +6116,34 @@
         <v>24007048</v>
       </c>
       <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>8392</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <v>195</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>148</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>93</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <v>190</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>444</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>6</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>2018</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -6155,34 +6157,34 @@
         <v>30653312</v>
       </c>
       <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>8151</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <v>190</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>168</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>52</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <v>114</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>321</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>4</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17">
-        <v>2018</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -6196,581 +6198,581 @@
         <v>7048534</v>
       </c>
       <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>2018</v>
+      </c>
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>2488</v>
       </c>
-      <c r="F18" s="1">
+      <c r="H18" s="1">
         <v>94</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>141</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
         <v>146</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
         <v>91</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>317</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>2018</v>
-      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
